--- a/biology/Botanique/Aphyllae/Aphyllae.xlsx
+++ b/biology/Botanique/Aphyllae/Aphyllae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphyllae est un  sous-genre de plantes à fleurs du genre Phalaenopsis et des la famille des Orchidaceae (les Orchidées) qui regroupe les espèces aphylles notamment celles qui étaient classées auparavant dans le genre Kingidium.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces regroupées dans ce sous-genre forment un groupe monophylétique et sont toutes avec un feuillage rudimentaire (aphylle) ressemblant plus à des bractées. Elles se caractérisent également par la présence de quatre pollinies.
 Ce sous-genre est l'équivalent de la section Aphyllae dans le classement des Phalaenopsis par  Sweet en 1980.
@@ -543,15 +557,17 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Phalaenopsis hainanensis → Phalaenopsis stobartiana (selon Kew garden world checklist, 03 jan 2013)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phalaenopsis hainanensis → Phalaenopsis stobartiana (selon Kew garden world checklist, 03 jan 2013)
 Phalaenopsis honghenensis
 Phalaenopsis minus
 Phalaenopsis stobartiana
 Phalaenopsis taenialis
 Phalaenopsis wilsonii
-Cette liste n'a pas fait l'objet de nouvelle publication scientifique depuis 2001 mais une espèce découverte en 2010 semble appartenir à ce sous-genre[2]:
+Cette liste n'a pas fait l'objet de nouvelle publication scientifique depuis 2001 mais une espèce découverte en 2010 semble appartenir à ce sous-genre:
 Phalaenopsis natmataungensis</t>
         </is>
       </c>
